--- a/core/src/main/scala/fortress/compiler/standard-compilers.xlsx
+++ b/core/src/main/scala/fortress/compiler/standard-compilers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nday/UW/github/fortress/core/src/main/scala/fortress/compiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1560743-A865-E442-90DE-2A3481AF26BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C4E3A6-804D-3042-8400-598E2515EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="26700" xr2:uid="{C71EE485-EEA5-D040-8A1D-F67D94437C8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>TyepcheckSanitize</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Datatype </t>
-  </si>
-  <si>
-    <t>DomainElem should be renamed to DEToConstants</t>
-  </si>
-  <si>
-    <t>Datatype should be renamed to DEToDatatypes</t>
   </si>
   <si>
     <t>DatatypeNoRange</t>
@@ -453,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE0E09-0CD7-1D46-BCA1-41A6132105D9}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,16 +466,16 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -546,7 +540,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -566,7 +560,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -721,16 +715,6 @@
       </c>
       <c r="F14" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
